--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>34.77538322539206</v>
+      </c>
+      <c r="N2">
         <v>37.41105903486667</v>
-      </c>
-      <c r="N2">
-        <v>50.17610204559237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>65.22461677460794</v>
+      </c>
+      <c r="N3">
         <v>62.58894096513333</v>
-      </c>
-      <c r="N3">
-        <v>49.82389795440763</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1009354721367471</v>
       </c>
       <c r="L4">
-        <v>0.1089409808557616</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -580,10 +580,10 @@
         <v>0</v>
       </c>
       <c r="K5">
+        <v>0.5294612931872841</v>
+      </c>
+      <c r="L5">
         <v>0.2056934072896394</v>
-      </c>
-      <c r="L5">
-        <v>0.06127816636179724</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.152447791616005</v>
+        <v>3.163036016378295</v>
       </c>
       <c r="L6">
-        <v>2.042643391045531</v>
+        <v>3.152447791616004</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.577188948810248</v>
+        <v>4.413116129953531</v>
       </c>
       <c r="L7">
-        <v>6.577386653558144</v>
+        <v>4.577188948810247</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="K8">
+        <v>22.4640355511931</v>
+      </c>
+      <c r="L8">
         <v>26.14301771504842</v>
-      </c>
-      <c r="L8">
-        <v>10.42581717770559</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>65.9216521372357</v>
+        <v>69.32941553715104</v>
       </c>
       <c r="L9">
-        <v>80.78393363047319</v>
+        <v>65.92165213723568</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3655391214761318</v>
       </c>
       <c r="J10">
-        <v>0.0883146838169831</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.051166603613285</v>
+        <v>3.571192267779641</v>
       </c>
       <c r="J11">
-        <v>1.867224743559071</v>
+        <v>6.416701332322076</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>6.416701332322076</v>
+        <v>3.779139580763482</v>
       </c>
       <c r="J12">
-        <v>2.157056599014273</v>
+        <v>6.051166603613287</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>40.37006643429405</v>
+        <v>44.34054868993286</v>
       </c>
       <c r="J13">
-        <v>51.50390529441754</v>
+        <v>47.16206562977059</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>47.16206562977059</v>
+        <v>47.94358034004787</v>
       </c>
       <c r="J14">
-        <v>44.38349867919212</v>
+        <v>40.37006643429405</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.1849113398521425</v>
+        <v>0.3160900054498228</v>
       </c>
       <c r="H15">
-        <v>0.03730848339505408</v>
+        <v>0.1849113398521426</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.9595834222891284</v>
+        <v>0.3911155649674846</v>
       </c>
       <c r="H16">
-        <v>0.1492272980118046</v>
+        <v>0.9595834222891286</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="G17">
+        <v>2.202104085556774</v>
+      </c>
+      <c r="H17">
         <v>2.581534475927742</v>
-      </c>
-      <c r="H17">
-        <v>0.4327717718142155</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>5.088805661948312</v>
+        <v>2.558168666211745</v>
       </c>
       <c r="H18">
-        <v>1.343045682106241</v>
+        <v>5.088805661948313</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>36.56632957221168</v>
+      </c>
+      <c r="H19">
         <v>36.9894236417927</v>
-      </c>
-      <c r="H19">
-        <v>22.60430931065137</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1228,10 +1228,10 @@
         <v>0</v>
       </c>
       <c r="G20">
+        <v>57.9661921056025</v>
+      </c>
+      <c r="H20">
         <v>54.19574145818999</v>
-      </c>
-      <c r="H20">
-        <v>75.43333745402133</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.998836363026079</v>
+        <v>0.04674690356820257</v>
       </c>
       <c r="F21">
-        <v>0.754691762167478</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1.332078633002786</v>
+        <v>0.7094179086160032</v>
       </c>
       <c r="F22">
-        <v>1.075799331370683</v>
+        <v>0.998836363026079</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>5.471422464729762</v>
+        <v>2.51728110651334</v>
       </c>
       <c r="F23">
-        <v>3.704241917490973</v>
+        <v>1.332078633002786</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>92.19766253924136</v>
+        <v>4.812508768423475</v>
       </c>
       <c r="F24">
-        <v>94.46526698897087</v>
+        <v>5.47142246472976</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.359541792643325</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3.451267276712158</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>91.91404531287898</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>92.19766253924138</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1480,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>14.09171553505791</v>
+        <v>2.234223318713744</v>
       </c>
       <c r="D26">
-        <v>23.58177613165027</v>
+        <v>2.359541792643326</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>0</v>
       </c>
       <c r="C27">
+        <v>11.83482422254451</v>
+      </c>
+      <c r="D27">
         <v>15.82947616252149</v>
-      </c>
-      <c r="D27">
-        <v>11.19325572455039</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>67.71926650977727</v>
+        <v>18.34412601854967</v>
       </c>
       <c r="D28">
-        <v>61.77370086708718</v>
+        <v>14.09171553505792</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1606,16 +1606,16 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
-        <v>1.469021383051253</v>
+        <v>0</v>
       </c>
       <c r="B29">
-        <v>1.179629896175708</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>67.58682644019208</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>67.71926650977727</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
-        <v>2.387704806778013</v>
+        <v>1.477469524387431</v>
       </c>
       <c r="B30">
-        <v>2.740722385704437</v>
+        <v>1.469021383051252</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1694,10 +1694,10 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
-        <v>3.711785487435435</v>
+        <v>3.014846641513787</v>
       </c>
       <c r="B31">
-        <v>4.141209795620838</v>
+        <v>2.387704806778013</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
-        <v>5.710414795749252</v>
+        <v>3.051927009788</v>
       </c>
       <c r="B32">
-        <v>6.927104766414177</v>
+        <v>3.711785487435435</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33">
-        <v>11.42104119414412</v>
+        <v>5.963689025065503</v>
       </c>
       <c r="B33">
-        <v>10.84262573786716</v>
+        <v>5.710414795749253</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34">
-        <v>15.86279232813973</v>
+        <v>10.28445877259753</v>
       </c>
       <c r="B34">
-        <v>20.78200735624767</v>
+        <v>11.42104119414412</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35">
-        <v>59.43724000470218</v>
+        <v>15.17053956630397</v>
       </c>
       <c r="B35">
-        <v>53.38670006197002</v>
+        <v>15.86279232813973</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1909,6 +1909,50 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36">
+        <v>61.03706946034377</v>
+      </c>
+      <c r="B36">
+        <v>59.4372400047022</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
         <v>0</v>
       </c>
     </row>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -382,15 +382,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.01645278051990786</v>
+        <v>0.01380071763731714</v>
       </c>
       <c r="B2">
-        <v>0.350262697022767</v>
+        <v>0.3502626970227671</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.04113195129976966</v>
+        <v>0.03450179409329285</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -398,47 +398,47 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.4113195129976966</v>
+        <v>0.3657190173889042</v>
       </c>
       <c r="B4">
-        <v>0.5253940455341506</v>
+        <v>0.5253940455341507</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.5264889766370516</v>
+        <v>0.4623240408501242</v>
       </c>
       <c r="B5">
-        <v>0.350262697022767</v>
+        <v>0.3502626970227671</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.970714050674564</v>
+        <v>0.8901462876069556</v>
       </c>
       <c r="B6">
-        <v>0.7005253940455339</v>
+        <v>0.7005253940455342</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>1.324448831852583</v>
+        <v>1.366271046094397</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1.751313485113835</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>1.373807173412307</v>
+        <v>1.380071763731714</v>
       </c>
       <c r="B8">
-        <v>1.751313485113835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>1.669957222770648</v>
+        <v>1.442174993099641</v>
       </c>
       <c r="B9">
         <v>1.751313485113835</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2.903915761763738</v>
+        <v>2.663538504002208</v>
       </c>
       <c r="B10">
         <v>1.751313485113835</v>
@@ -454,15 +454,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4.039157617637381</v>
+        <v>4.002208114821971</v>
       </c>
       <c r="B11">
-        <v>3.50262697022767</v>
+        <v>3.502626970227671</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5.067456400131622</v>
+        <v>4.809550096605023</v>
       </c>
       <c r="B12">
         <v>1.751313485113835</v>
@@ -470,31 +470,31 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>5.141493912471208</v>
+        <v>6.182721501518079</v>
       </c>
       <c r="B13">
-        <v>3.50262697022767</v>
+        <v>3.502626970227671</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>6.301414939124713</v>
+        <v>6.224123654430031</v>
       </c>
       <c r="B14">
-        <v>3.50262697022767</v>
+        <v>3.502626970227671</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>7.000658111220797</v>
+        <v>7.321280706596743</v>
       </c>
       <c r="B15">
-        <v>3.50262697022767</v>
+        <v>3.502626970227671</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>8.17703191839421</v>
+        <v>8.280430582390284</v>
       </c>
       <c r="B16">
         <v>15.76182136602452</v>
@@ -502,26 +502,26 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>16.20598881210925</v>
+        <v>16.25034501794093</v>
       </c>
       <c r="B17">
-        <v>10.50788091068301</v>
+        <v>15.76182136602452</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>16.32938466600856</v>
+        <v>16.78167264697764</v>
       </c>
       <c r="B18">
-        <v>15.76182136602452</v>
+        <v>10.50788091068301</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>22.49917736097401</v>
+        <v>21.52911951421474</v>
       </c>
       <c r="B19">
-        <v>35.0262697022767</v>
+        <v>35.02626970227671</v>
       </c>
     </row>
   </sheetData>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -366,162 +366,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1">
         <v>0</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
-        <v>0.01645278051990786</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>0.350262697022767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.3108700187773837</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
-        <v>0.04113195129976966</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.13916127686209</v>
+      </c>
+      <c r="J3">
+        <v>3.238341968911915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
-        <v>0.4113195129976966</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>0.5253940455341506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>7.041518881702483</v>
+      </c>
+      <c r="J4">
+        <v>12.30569948186528</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>0.5264889766370516</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.350262697022767</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>33.20675985812643</v>
+      </c>
+      <c r="J5">
+        <v>31.0880829015544</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
-        <v>0.970714050674564</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.7005253940455339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>58.30168996453161</v>
+      </c>
+      <c r="J6">
+        <v>53.36787564766839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
-        <v>1.324448831852583</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>10.49074893973994</v>
+      </c>
+      <c r="H7">
+        <v>11.1869320099219</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
-        <v>1.373807173412307</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>1.751313485113835</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>13.1845085519877</v>
+      </c>
+      <c r="H8">
+        <v>16.27109642566317</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
-        <v>1.669957222770648</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1.751313485113835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>16.04138509577294</v>
+      </c>
+      <c r="H9">
+        <v>22.37275758528685</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
-        <v>2.903915761763738</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1.751313485113835</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>16.17886936664026</v>
+      </c>
+      <c r="H10">
+        <v>16.27109642566317</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
-        <v>4.039157617637381</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>3.50262697022767</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>44.10448804585916</v>
+      </c>
+      <c r="H11">
+        <v>33.89811755346492</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
-        <v>5.067456400131622</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1.751313485113835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.4439594235968154</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
-        <v>5.141493912471208</v>
+        <v>0</v>
       </c>
       <c r="B13">
-        <v>3.50262697022767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.612614400158734</v>
+      </c>
+      <c r="F13">
+        <v>1.680672268907563</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
-        <v>6.301414939124713</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>3.50262697022767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>5.768992286515043</v>
+      </c>
+      <c r="F14">
+        <v>10.08403361344538</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
-        <v>7.000658111220797</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>3.50262697022767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>14.70770604429673</v>
+      </c>
+      <c r="F15">
+        <v>15.96638655462185</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
-        <v>8.17703191839421</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>15.76182136602452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>38.91465562141918</v>
+      </c>
+      <c r="F16">
+        <v>36.97478991596639</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
-        <v>16.20598881210925</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>10.50788091068301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>39.55207222401349</v>
+      </c>
+      <c r="F17">
+        <v>35.29411764705883</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
-        <v>16.32938466600856</v>
+        <v>0</v>
       </c>
       <c r="B18">
-        <v>15.76182136602452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.6687157335105499</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
-        <v>22.49917736097401</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>35.0262697022767</v>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1.792241236085728</v>
+      </c>
+      <c r="D19">
+        <v>2.19407618591895</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>5.883452400731018</v>
+      </c>
+      <c r="D20">
+        <v>7.3135872863965</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>40.53206512709752</v>
+      </c>
+      <c r="D21">
+        <v>42.4188062610997</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>51.12352550257518</v>
+      </c>
+      <c r="D22">
+        <v>48.07353026658484</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>0.7551063129878286</v>
+      </c>
+      <c r="B23">
+        <v>1.334855759682014</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>2.715392206704746</v>
+      </c>
+      <c r="B24">
+        <v>3.985727752397602</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>3.332934597326475</v>
+      </c>
+      <c r="B25">
+        <v>3.841665303515761</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>7.942821256616525</v>
+      </c>
+      <c r="B26">
+        <v>10.35486307574942</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>32.80450970423757</v>
+      </c>
+      <c r="B27">
+        <v>32.46207181470818</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>52.44923592212686</v>
+      </c>
+      <c r="B28">
+        <v>48.02081629394702</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -397,14 +397,8 @@
       <c r="H1" s="1">
         <v>0</v>
       </c>
-      <c r="I1" s="1">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>0</v>
       </c>
@@ -424,19 +418,13 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.5857716076501772</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0.3108700187773837</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>0.5955277199023534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
@@ -456,19 +444,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.551035351316522</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.13916127686209</v>
-      </c>
-      <c r="J3">
-        <v>3.238341968911915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>1.455549594733406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
@@ -488,19 +470,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>3.464839059250798</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>7.041518881702483</v>
-      </c>
-      <c r="J4">
-        <v>12.30569948186528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>2.506456402130924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
@@ -520,19 +496,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4.987845239141259</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>33.20675985812643</v>
-      </c>
-      <c r="J5">
-        <v>31.0880829015544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>4.990455753371678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
@@ -552,19 +522,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>14.30454265881733</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>58.30168996453161</v>
-      </c>
-      <c r="J6">
-        <v>53.36787564766839</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>16.63485251123892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>0</v>
       </c>
@@ -584,19 +548,13 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>10.49074893973994</v>
+        <v>33.7052983041912</v>
       </c>
       <c r="H7">
-        <v>11.1869320099219</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>32.23002674052541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>0</v>
       </c>
@@ -616,19 +574,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>13.1845085519877</v>
+        <v>40.40066777963272</v>
       </c>
       <c r="H8">
-        <v>16.27109642566317</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>41.5871312780973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>0</v>
       </c>
@@ -642,25 +594,19 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.02533850661176656</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.07355768620083211</v>
       </c>
       <c r="G9">
-        <v>16.04138509577294</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>22.37275758528685</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>0</v>
       </c>
@@ -674,25 +620,19 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1947897695779555</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.380490700206816</v>
       </c>
       <c r="G10">
-        <v>16.17886936664026</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>16.27109642566317</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>0</v>
       </c>
@@ -706,25 +646,19 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.4077915907831182</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.4619006982783805</v>
       </c>
       <c r="G11">
-        <v>44.10448804585916</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>33.89811755346492</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>0</v>
       </c>
@@ -738,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4439594235968154</v>
+        <v>1.892469712566316</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>2.130863396332739</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -749,14 +683,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0</v>
       </c>
@@ -770,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.612614400158734</v>
+        <v>40.2415076411434</v>
       </c>
       <c r="F13">
-        <v>1.680672268907563</v>
+        <v>38.69388339547822</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -781,14 +709,8 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>0</v>
       </c>
@@ -802,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>5.768992286515043</v>
+        <v>57.23810277931744</v>
       </c>
       <c r="F14">
-        <v>10.08403361344538</v>
+        <v>58.25930412350301</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -813,14 +735,8 @@
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>0</v>
       </c>
@@ -828,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1.224895166629883</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.535714129008763</v>
       </c>
       <c r="E15">
-        <v>14.70770604429673</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>15.96638655462185</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -845,14 +761,8 @@
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>0</v>
       </c>
@@ -860,16 +770,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1.649746192893401</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1.535714129008763</v>
       </c>
       <c r="E16">
-        <v>38.91465562141918</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>36.97478991596639</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -877,14 +787,8 @@
       <c r="H16">
         <v>0</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>0</v>
       </c>
@@ -892,16 +796,16 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3.111895828735379</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3.93888735317476</v>
       </c>
       <c r="E17">
-        <v>39.55207222401349</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>35.29411764705883</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -909,14 +813,8 @@
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>0</v>
       </c>
@@ -924,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.6687157335105499</v>
+        <v>6.193445155594792</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>6.630774833594407</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -941,14 +839,8 @@
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>0</v>
       </c>
@@ -956,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.792241236085728</v>
+        <v>6.833480467887884</v>
       </c>
       <c r="D19">
-        <v>2.19407618591895</v>
+        <v>5.2653055851729</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -973,14 +865,8 @@
       <c r="H19">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>0</v>
       </c>
@@ -988,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.883452400731018</v>
+        <v>26.37111013021408</v>
       </c>
       <c r="D20">
-        <v>7.3135872863965</v>
+        <v>28.44054811831142</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1005,14 +891,8 @@
       <c r="H20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1020,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>40.53206512709752</v>
+        <v>54.61542705804459</v>
       </c>
       <c r="D21">
-        <v>42.4188062610997</v>
+        <v>52.65305585172899</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1037,25 +917,19 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C22">
-        <v>51.12352550257518</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>48.07353026658484</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1067,204 +941,6 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>0.7551063129878286</v>
-      </c>
-      <c r="B23">
-        <v>1.334855759682014</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>2.715392206704746</v>
-      </c>
-      <c r="B24">
-        <v>3.985727752397602</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>3.332934597326475</v>
-      </c>
-      <c r="B25">
-        <v>3.841665303515761</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>7.942821256616525</v>
-      </c>
-      <c r="B26">
-        <v>10.35486307574942</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>32.80450970423757</v>
-      </c>
-      <c r="B27">
-        <v>32.46207181470818</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>52.44923592212686</v>
-      </c>
-      <c r="B28">
-        <v>48.02081629394702</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
         <v>0</v>
       </c>
     </row>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.5857716076501772</v>
+        <v>0.3415863323499416</v>
       </c>
       <c r="H2">
-        <v>0.5955277199023534</v>
+        <v>0.3512440547385684</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.551035351316522</v>
+        <v>1.980210622318502</v>
       </c>
       <c r="H3">
-        <v>1.455549594733406</v>
+        <v>1.962257289042282</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.464839059250798</v>
+        <v>3.749079902218471</v>
       </c>
       <c r="H4">
-        <v>2.506456402130924</v>
+        <v>2.838173106021388</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.987845239141259</v>
+        <v>4.072904833662385</v>
       </c>
       <c r="H5">
-        <v>4.990455753371678</v>
+        <v>2.289452872001473</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -522,10 +522,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>14.30454265881733</v>
+        <v>11.84997093778064</v>
       </c>
       <c r="H6">
-        <v>16.63485251123892</v>
+        <v>13.0843329994615</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.7052983041912</v>
+        <v>27.67922478487725</v>
       </c>
       <c r="H7">
-        <v>32.23002674052541</v>
+        <v>29.43473191536076</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -574,10 +574,10 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>40.40066777963272</v>
+        <v>50.32702258679282</v>
       </c>
       <c r="H8">
-        <v>41.5871312780973</v>
+        <v>50.03980776337402</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -594,10 +594,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02533850661176656</v>
+        <v>0.03650486079923238</v>
       </c>
       <c r="F9">
-        <v>0.07355768620083211</v>
+        <v>0.09072711310134488</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1947897695779555</v>
+        <v>0.0989304403502218</v>
       </c>
       <c r="F10">
-        <v>0.380490700206816</v>
+        <v>0.1728394345701645</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4077915907831182</v>
+        <v>0.2506919250226087</v>
       </c>
       <c r="F11">
-        <v>0.4619006982783805</v>
+        <v>0.2734730094815129</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.892469712566316</v>
+        <v>1.559117991228031</v>
       </c>
       <c r="F12">
-        <v>2.130863396332739</v>
+        <v>1.635404270469866</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.2415076411434</v>
+        <v>32.72254985628717</v>
       </c>
       <c r="F13">
-        <v>38.69388339547822</v>
+        <v>32.16493109235962</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>57.23810277931744</v>
+        <v>65.33220492631274</v>
       </c>
       <c r="F14">
-        <v>58.25930412350301</v>
+        <v>65.66262508001749</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.224895166629883</v>
+        <v>0.397506286674684</v>
       </c>
       <c r="D15">
-        <v>1.535714129008763</v>
+        <v>0.5719799423698944</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.649746192893401</v>
+        <v>1.445152178463545</v>
       </c>
       <c r="D16">
-        <v>1.535714129008763</v>
+        <v>1.470712146025029</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.111895828735379</v>
+        <v>2.169802081809555</v>
       </c>
       <c r="D17">
-        <v>3.93888735317476</v>
+        <v>2.116704947688595</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.193445155594792</v>
+        <v>3.955652293326212</v>
       </c>
       <c r="D18">
-        <v>6.630774833594407</v>
+        <v>3.361627762342925</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.833480467887884</v>
+        <v>6.682533827737573</v>
       </c>
       <c r="D19">
-        <v>5.2653055851729</v>
+        <v>7.727861128481588</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>26.37111013021408</v>
+        <v>19.57661370401237</v>
       </c>
       <c r="D20">
-        <v>28.44054811831142</v>
+        <v>21.25909838837807</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>54.61542705804459</v>
+        <v>65.77273962797607</v>
       </c>
       <c r="D21">
-        <v>52.65305585172899</v>
+        <v>63.4920156847139</v>
       </c>
       <c r="E21">
         <v>0</v>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3415863323499416</v>
+        <v>0.3399930827750347</v>
       </c>
       <c r="H2">
-        <v>0.3512440547385684</v>
+        <v>0.3512440547385685</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -444,10 +444,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.980210622318502</v>
+        <v>1.688103067991987</v>
       </c>
       <c r="H3">
-        <v>1.962257289042282</v>
+        <v>1.962257289042281</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.749079902218471</v>
+        <v>3.324417808022809</v>
       </c>
       <c r="H4">
-        <v>2.838173106021388</v>
+        <v>2.838173106021387</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -496,7 +496,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.072904833662385</v>
+        <v>4.371474776856624</v>
       </c>
       <c r="H5">
         <v>2.289452872001473</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>11.84997093778064</v>
+        <v>11.07704826301522</v>
       </c>
       <c r="H6">
         <v>13.0843329994615</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>27.67922478487725</v>
+        <v>28.01459292721616</v>
       </c>
       <c r="H7">
         <v>29.43473191536076</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>50.32702258679282</v>
+        <v>51.18437007412216</v>
       </c>
       <c r="H8">
         <v>50.03980776337402</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.03650486079923238</v>
+        <v>0.02994656328612006</v>
       </c>
       <c r="F9">
         <v>0.09072711310134488</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0989304403502218</v>
+        <v>0.1143416535943787</v>
       </c>
       <c r="F10">
         <v>0.1728394345701645</v>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2506919250226087</v>
+        <v>0.2351616307085366</v>
       </c>
       <c r="F11">
         <v>0.2734730094815129</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1.559117991228031</v>
+        <v>1.498470436389535</v>
       </c>
       <c r="F12">
-        <v>1.635404270469866</v>
+        <v>1.635404270469867</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>32.72254985628717</v>
+        <v>30.65118607823842</v>
       </c>
       <c r="F13">
         <v>32.16493109235962</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>65.33220492631274</v>
+        <v>67.47089363778301</v>
       </c>
       <c r="F14">
         <v>65.66262508001749</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.397506286674684</v>
+        <v>0.3758612089590889</v>
       </c>
       <c r="D15">
-        <v>0.5719799423698944</v>
+        <v>0.571979942369894</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.445152178463545</v>
+        <v>1.182103911443057</v>
       </c>
       <c r="D16">
         <v>1.470712146025029</v>
@@ -796,10 +796,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.169802081809555</v>
+        <v>2.339344183230705</v>
       </c>
       <c r="D17">
-        <v>2.116704947688595</v>
+        <v>2.116704947688594</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.955652293326212</v>
+        <v>3.499827538451667</v>
       </c>
       <c r="D18">
-        <v>3.361627762342925</v>
+        <v>3.361627762342924</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -848,10 +848,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.682533827737573</v>
+        <v>6.860846227152555</v>
       </c>
       <c r="D19">
-        <v>7.727861128481588</v>
+        <v>7.727861128481583</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>19.57661370401237</v>
+        <v>19.6762372176137</v>
       </c>
       <c r="D20">
-        <v>21.25909838837807</v>
+        <v>21.25909838837806</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>65.77273962797607</v>
+        <v>66.06577971314923</v>
       </c>
       <c r="D21">
-        <v>63.4920156847139</v>
+        <v>63.49201568471391</v>
       </c>
       <c r="E21">
         <v>0</v>

--- a/Data/new_testdata2.xlsx
+++ b/Data/new_testdata2.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -402,207 +402,111 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>0.3399930827750347</v>
-      </c>
-      <c r="H2">
-        <v>0.3512440547385685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3">
-        <v>1.688103067991987</v>
-      </c>
-      <c r="H3">
-        <v>1.962257289042281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
-        <v>3.324417808022809</v>
-      </c>
-      <c r="H4">
-        <v>2.838173106021387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5">
-        <v>4.371474776856624</v>
-      </c>
-      <c r="H5">
-        <v>2.289452872001473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6">
-        <v>11.07704826301522</v>
-      </c>
-      <c r="H6">
-        <v>13.0843329994615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
-        <v>28.01459292721616</v>
-      </c>
-      <c r="H7">
-        <v>29.43473191536076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
         <v>0</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
-        <v>51.18437007412216</v>
-      </c>
-      <c r="H8">
-        <v>50.03980776337402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
-        <v>0.02994656328612006</v>
-      </c>
-      <c r="F9">
-        <v>0.09072711310134488</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
         <v>0</v>
       </c>
     </row>
@@ -610,25 +514,13 @@
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
       <c r="E10">
-        <v>0.1143416535943787</v>
-      </c>
-      <c r="F10">
-        <v>0.1728394345701645</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
         <v>0</v>
       </c>
     </row>
@@ -636,25 +528,13 @@
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11">
-        <v>0.2351616307085366</v>
-      </c>
-      <c r="F11">
-        <v>0.2734730094815129</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
         <v>0</v>
       </c>
     </row>
@@ -662,25 +542,13 @@
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
       <c r="E12">
-        <v>1.498470436389535</v>
-      </c>
-      <c r="F12">
-        <v>1.635404270469867</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
         <v>0</v>
       </c>
     </row>
@@ -688,25 +556,13 @@
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
-        <v>30.65118607823842</v>
-      </c>
-      <c r="F13">
-        <v>32.16493109235962</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
         <v>0</v>
       </c>
     </row>
@@ -714,25 +570,13 @@
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
       <c r="E14">
-        <v>67.47089363778301</v>
-      </c>
-      <c r="F14">
-        <v>65.66262508001749</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
         <v>0</v>
       </c>
     </row>
@@ -740,25 +584,13 @@
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
-        <v>0.3758612089590889</v>
-      </c>
-      <c r="D15">
-        <v>0.571979942369894</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
         <v>0</v>
       </c>
     </row>
@@ -766,181 +598,2407 @@
       <c r="A16">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
-        <v>1.182103911443057</v>
-      </c>
-      <c r="D16">
-        <v>1.470712146025029</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
-        <v>2.339344183230705</v>
-      </c>
-      <c r="D17">
-        <v>2.116704947688594</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
       <c r="C18">
-        <v>3.499827538451667</v>
-      </c>
-      <c r="D18">
-        <v>3.361627762342924</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
-        <v>6.860846227152555</v>
-      </c>
-      <c r="D19">
-        <v>7.727861128481583</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
       <c r="C20">
-        <v>19.6762372176137</v>
-      </c>
-      <c r="D20">
-        <v>21.25909838837806</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
       <c r="C21">
-        <v>66.06577971314923</v>
-      </c>
-      <c r="D21">
-        <v>63.49201568471391</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.02590468156703443</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0.2619622801988719</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0.3108458120939883</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0.4118569651332212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0.7879795338744114</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>2.53342084034863</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>2.753586963012953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>3.480309259428954</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>8.361332839113084</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>10.6699705695311</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>14.56790655955883</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>16.08937923398483</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>39.74554446215409</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>6.183498642789088</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>15.90021262663952</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>77.9162887305714</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0.1938098909263243</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="C182">
+        <v>0.3092104519305323</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>2.489748504928536</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="C184">
+        <v>8.631817592718665</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>18.96903774295153</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>69.40637581654443</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187">
         <v>100</v>
       </c>
-      <c r="B22">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="G187">
         <v>0</v>
       </c>
     </row>
